--- a/data/trans_dic/P25A_N_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25A_N_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene más de dos enfermedades crónicas discapacitantes</t>
+          <t>Población que tiene más de dos enfermedades crónicas discapacitantes (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,2%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>28,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>24,37%</t>
+          <t>25,06%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>24,26%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>20,04%</t>
+          <t>38,98%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>21,11%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>20,87%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>19,93%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>28,19%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,29; 16,91</t>
+          <t>7,62; 20,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,02; 18,81</t>
+          <t>10,81; 21,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,69; 19,51</t>
+          <t>10,83; 20,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,27; 20,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,9; 33,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,83; 29,79</t>
+          <t>6,95; 18,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,3; 28,02</t>
+          <t>21,13; 35,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,5; 29,17</t>
+          <t>20,07; 30,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,14; 25,16</t>
+          <t>19,8; 29,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,11; 23,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,16; 22,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,93; 23,83</t>
+          <t>31,06; 49,25</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>15,82; 26,52</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>17,39; 25,08</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>16,81; 23,31</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>22,3; 35,11</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>11,73%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>20,3%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>11,47%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>9,2%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>10,8%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>15,03%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,07; 7,88</t>
+          <t>5,24; 11,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,49; 8,14</t>
+          <t>4,57; 9,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,79; 8,43</t>
+          <t>5,17; 9,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,98; 15,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,27; 18,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,16; 13,86</t>
+          <t>6,86; 13,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,95; 17,57</t>
+          <t>11,37; 19,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,35; 27,05</t>
+          <t>9,07; 14,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,72; 12,66</t>
+          <t>12,3; 18,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,21; 10,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,74; 11,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,62; 19,44</t>
+          <t>16,34; 24,73</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>9,09; 14,04</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>7,56; 11,42</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>9,04; 12,81</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>12,58; 17,98</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>13,49%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>8,95%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>7,62%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>7,73%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>11,78%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 13,42</t>
+          <t>6,17; 14,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,51; 10,8</t>
+          <t>4,12; 9,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,33; 9,18</t>
+          <t>4,34; 9,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 7,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,32; 10,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,42; 11,22</t>
+          <t>6,46; 14,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,64; 11,48</t>
+          <t>5,69; 11,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 14,95</t>
+          <t>6,83; 12,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,32; 11,13</t>
+          <t>6,72; 11,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,15; 9,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,08; 9,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 9,86</t>
+          <t>10,16; 17,1</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>6,69; 11,91</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>5,87; 9,53</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>6,21; 9,55</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>9,45; 14,42</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,87%</t>
+          <t>16,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>16,21%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>23,23%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>11,52%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>11,91%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>15,37%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,21; 9,83</t>
+          <t>4,69; 10,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,56; 9,65</t>
+          <t>5,46; 12,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,64; 9,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,2; 13,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,6; 18,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,52; 16,01</t>
+          <t>5,69; 12,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,23; 16,77</t>
+          <t>12,99; 19,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,9; 23,17</t>
+          <t>12,45; 21,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,39; 13,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,08; 12,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,47; 12,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,34; 17,8</t>
+          <t>19,05; 28,54</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>9,63; 14,34</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>9,43; 14,79</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>12,75; 18,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8,3%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8,3%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8,4%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9,7%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15,55%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14,32%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15,33%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22,75%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>12,0%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>11,37%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>11,93%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>16,37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6,78; 10,22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6,92; 9,94</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6,99; 10,12</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7,82; 11,65</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>13,52; 17,83</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>12,61; 16,16</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>13,48; 17,42</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>20,17; 25,51</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>10,61; 13,41</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>10,33; 12,59</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>10,75; 13,31</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>14,73; 18,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene más de dos enfermedades crónicas discapacitantes (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>42290</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>83911</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>106215</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>56495</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>118317</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>160060</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>218024</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>251562</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>160608</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>243971</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>324239</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>308056</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>25847; 69339</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>57326; 114903</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>78900; 146290</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>31081; 82613</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>89088; 151283</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>128178; 195074</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>177944; 264039</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>200447; 317797</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>120351; 201769</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>203302; 293190</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>273474; 379238</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>243636; 383589</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>73448</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>79832</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>113060</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>103784</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>148127</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>144736</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>224877</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>219919</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>221575</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>224568</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>337938</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>323703</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>48909; 105001</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>55210; 115126</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>83893; 152922</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>73455; 140014</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>113719; 193908</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>111846; 178976</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>185417; 281876</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>177092; 267898</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>175658; 271288</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>184584; 278615</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>283051; 400979</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>271007; 387261</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>67975</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>52452</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>69886</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>82493</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>64961</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>83826</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>104491</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>120986</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>132936</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>136278</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>174377</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>203479</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>44182; 102043</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>34807; 76331</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>47469; 100247</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>53675; 121669</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>43770; 92172</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>64337; 113100</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>78120; 130878</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>91110; 153390</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>99292; 176897</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>104937; 170346</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>140142; 215530</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>163262; 249181</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>102318</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>69698</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>91506</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>227349</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>123674</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>228749</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>329668</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>193372</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>320255</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>68349; 158392</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>46936; 110876</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>62548; 133200</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>182258; 277262</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>94981; 162001</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>187534; 280988</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>275364; 410244</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>153034; 240132</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>265530; 389207</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>275.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>296.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>348.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>373.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>388.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>286032</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>285893</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>289161</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>334278</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>558754</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>512296</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>547392</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>821216</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>844786</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>798189</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>836553</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>1155494</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>233711; 352089</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>238416; 342120</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>240632; 348533</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>269632; 401615</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>486113; 640897</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>451031; 578161</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>481336; 621857</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>728091; 920973</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>747086; 943730</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>725206; 884070</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>753858; 933363</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>1039294; 1283890</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
